--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Profile</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>study-summary</t>
+  </si>
+  <si>
+    <t>Study Summary</t>
+  </si>
+  <si>
+    <t>null#C0242482</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>study-variable-summary</t>
+  </si>
+  <si>
+    <t>Study Variable Summary</t>
   </si>
 </sst>
 </file>
@@ -199,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -275,6 +296,76 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
